--- a/sources/Russian_data.xlsx
+++ b/sources/Russian_data.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Russian" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Russian!$A$1:$S$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Russian!$A$1:$U$131</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="594">
   <si>
     <t>language_no</t>
   </si>
@@ -1798,6 +1798,12 @@
   </si>
   <si>
     <t>было по ПРЕД</t>
+  </si>
+  <si>
+    <t>verb_original_orthography</t>
+  </si>
+  <si>
+    <t>sentence_original_orthography</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -1907,7 +1913,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2204,37 +2209,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S131"/>
+  <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="4.54296875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="26.1796875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="13" style="11" customWidth="1"/>
-    <col min="11" max="11" width="6" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.1796875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="50.81640625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="37.6328125" style="11" customWidth="1"/>
-    <col min="15" max="15" width="46" style="11" customWidth="1"/>
-    <col min="16" max="16" width="29.26953125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="28.6328125" style="11" customWidth="1"/>
-    <col min="19" max="19" width="113.81640625" style="11" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="11"/>
+    <col min="1" max="1" width="4.6328125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.54296875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13" style="10" customWidth="1"/>
+    <col min="11" max="11" width="6" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.1796875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="50.81640625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="37.6328125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="46" style="10" customWidth="1"/>
+    <col min="16" max="16" width="29.26953125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="28.6328125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="113.81640625" style="10" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2292,8 +2297,14 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T1" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2330,15 +2341,17 @@
       <c r="L2" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="M2" s="12"/>
+      <c r="M2" s="11"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S2" s="11"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2375,15 +2388,17 @@
       <c r="L3" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="M3" s="9"/>
+      <c r="M3" s="8"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S3" s="8"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2405,7 +2420,7 @@
       <c r="G4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -2420,15 +2435,17 @@
       <c r="L4" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="M4" s="10"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S4" s="9"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2463,15 +2480,17 @@
       <c r="L5" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M5" s="10"/>
+      <c r="M5" s="9"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S5" s="9"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -2508,15 +2527,17 @@
       <c r="L6" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="M6" s="12"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S6" s="11"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -2553,17 +2574,19 @@
       <c r="L7" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>584</v>
-      </c>
+      <c r="M7" s="9"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="8"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S7" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -2600,15 +2623,17 @@
       <c r="L8" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="M8" s="10"/>
+      <c r="M8" s="9"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S8" s="9"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -2630,7 +2655,7 @@
       <c r="G9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>49</v>
       </c>
       <c r="I9" s="6" t="s">
@@ -2643,15 +2668,17 @@
       <c r="L9" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M9" s="10"/>
+      <c r="M9" s="9"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S9" s="9"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2673,7 +2700,7 @@
       <c r="G10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>53</v>
       </c>
       <c r="I10" s="6" t="s">
@@ -2686,15 +2713,17 @@
       <c r="L10" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M10" s="10"/>
+      <c r="M10" s="9"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S10" s="9"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -2731,15 +2760,17 @@
       <c r="L11" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="M11" s="9"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S11" s="8"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -2776,15 +2807,17 @@
       <c r="L12" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="M12" s="10"/>
+      <c r="M12" s="9"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S12" s="9"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -2806,7 +2839,7 @@
       <c r="G13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="13" t="s">
         <v>65</v>
       </c>
       <c r="I13" s="6" t="s">
@@ -2821,15 +2854,17 @@
       <c r="L13" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="M13" s="10"/>
+      <c r="M13" s="9"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S13" s="9"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -2866,15 +2901,17 @@
       <c r="L14" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="M14" s="10"/>
+      <c r="M14" s="9"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="8"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S14" s="9"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -2896,7 +2933,7 @@
       <c r="G15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>73</v>
       </c>
       <c r="I15" s="6" t="s">
@@ -2911,15 +2948,17 @@
       <c r="L15" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="M15" s="10"/>
+      <c r="M15" s="9"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="8"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S15" s="9"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -2941,7 +2980,7 @@
       <c r="G16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>77</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -2954,15 +2993,17 @@
       <c r="L16" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M16" s="10"/>
+      <c r="M16" s="9"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S16" s="9"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -2997,15 +3038,17 @@
       <c r="L17" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M17" s="9"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="5"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S17" s="8"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -3042,15 +3085,17 @@
       <c r="L18" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="M18" s="10"/>
+      <c r="M18" s="9"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="5"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S18" s="9"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -3072,7 +3117,7 @@
       <c r="G19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="13" t="s">
         <v>89</v>
       </c>
       <c r="I19" s="6" t="s">
@@ -3085,15 +3130,17 @@
       <c r="L19" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M19" s="10"/>
+      <c r="M19" s="9"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="5"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S19" s="9"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -3128,15 +3175,17 @@
       <c r="L20" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M20" s="10"/>
+      <c r="M20" s="9"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="8"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S20" s="9"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -3171,15 +3220,17 @@
       <c r="L21" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M21" s="9"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S21" s="8"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -3216,15 +3267,17 @@
       <c r="L22" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="M22" s="10"/>
+      <c r="M22" s="9"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="8"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S22" s="9"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -3261,15 +3314,17 @@
       <c r="L23" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="M23" s="10"/>
+      <c r="M23" s="9"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S23" s="9"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -3306,15 +3361,17 @@
       <c r="L24" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="M24" s="10"/>
+      <c r="M24" s="9"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="8"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S24" s="9"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -3336,7 +3393,7 @@
       <c r="G25" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="13" t="s">
         <v>113</v>
       </c>
       <c r="I25" s="6" t="s">
@@ -3351,15 +3408,17 @@
       <c r="L25" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="M25" s="10"/>
+      <c r="M25" s="9"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="5"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S25" s="9"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -3396,15 +3455,17 @@
       <c r="L26" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="M26" s="9"/>
+      <c r="M26" s="8"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="5"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S26" s="8"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -3426,7 +3487,7 @@
       <c r="G27" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="13" t="s">
         <v>121</v>
       </c>
       <c r="I27" s="6" t="s">
@@ -3439,15 +3500,17 @@
       <c r="L27" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M27" s="10"/>
+      <c r="M27" s="9"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="5"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S27" s="9"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -3469,7 +3532,7 @@
       <c r="G28" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="13" t="s">
         <v>125</v>
       </c>
       <c r="I28" s="6" t="s">
@@ -3482,15 +3545,17 @@
       <c r="L28" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M28" s="10"/>
+      <c r="M28" s="9"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="5"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S28" s="9"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -3512,7 +3577,7 @@
       <c r="G29" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="13" t="s">
         <v>129</v>
       </c>
       <c r="I29" s="6" t="s">
@@ -3525,17 +3590,19 @@
       <c r="L29" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M29" s="10" t="s">
-        <v>585</v>
-      </c>
+      <c r="M29" s="9"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="5"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S29" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>1</v>
       </c>
@@ -3557,7 +3624,7 @@
       <c r="G30" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="13" t="s">
         <v>133</v>
       </c>
       <c r="I30" s="6" t="s">
@@ -3572,15 +3639,17 @@
       <c r="L30" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="M30" s="10"/>
+      <c r="M30" s="9"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="8"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S30" s="9"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -3617,15 +3686,17 @@
       <c r="L31" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="M31" s="9"/>
+      <c r="M31" s="8"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S31" s="8"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -3660,15 +3731,17 @@
       <c r="L32" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M32" s="10"/>
+      <c r="M32" s="9"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="5"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S32" s="9"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -3705,15 +3778,17 @@
       <c r="L33" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="M33" s="9"/>
+      <c r="M33" s="8"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S33" s="8"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -3735,7 +3810,7 @@
       <c r="G34" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="13" t="s">
         <v>149</v>
       </c>
       <c r="I34" s="6" t="s">
@@ -3748,15 +3823,17 @@
       <c r="L34" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M34" s="10"/>
+      <c r="M34" s="9"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="5"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S34" s="9"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>1</v>
       </c>
@@ -3793,15 +3870,17 @@
       <c r="L35" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="M35" s="9"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="5"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S35" s="8"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -3838,17 +3917,19 @@
       <c r="L36" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="M36" s="10" t="s">
-        <v>586</v>
-      </c>
+      <c r="M36" s="9"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="5"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S36" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -3870,7 +3951,7 @@
       <c r="G37" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="13" t="s">
         <v>553</v>
       </c>
       <c r="I37" s="6" t="s">
@@ -3883,15 +3964,17 @@
       <c r="L37" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M37" s="10"/>
+      <c r="M37" s="9"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="5"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S37" s="9"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -3928,15 +4011,17 @@
       <c r="L38" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="M38" s="9"/>
+      <c r="M38" s="8"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S38" s="8"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -3973,17 +4058,19 @@
       <c r="L39" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="M39" s="10" t="s">
-        <v>587</v>
-      </c>
+      <c r="M39" s="9"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S39" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -4005,7 +4092,7 @@
       <c r="G40" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="13" t="s">
         <v>172</v>
       </c>
       <c r="I40" s="6" t="s">
@@ -4018,17 +4105,19 @@
       <c r="L40" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M40" s="10" t="s">
-        <v>588</v>
-      </c>
+      <c r="M40" s="9"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="5"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S40" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>1</v>
       </c>
@@ -4050,7 +4139,7 @@
       <c r="G41" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="13" t="s">
         <v>176</v>
       </c>
       <c r="I41" s="6" t="s">
@@ -4063,15 +4152,17 @@
       <c r="L41" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M41" s="10"/>
+      <c r="M41" s="9"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="5"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S41" s="9"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -4093,7 +4184,7 @@
       <c r="G42" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="H42" s="13" t="s">
         <v>180</v>
       </c>
       <c r="I42" s="6" t="s">
@@ -4106,15 +4197,17 @@
       <c r="L42" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M42" s="10"/>
+      <c r="M42" s="9"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="5"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S42" s="9"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>1</v>
       </c>
@@ -4151,15 +4244,17 @@
       <c r="L43" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="M43" s="9"/>
+      <c r="M43" s="8"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S43" s="8"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>1</v>
       </c>
@@ -4181,7 +4276,7 @@
       <c r="G44" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H44" s="13" t="s">
         <v>188</v>
       </c>
       <c r="I44" s="6" t="s">
@@ -4194,15 +4289,17 @@
       <c r="L44" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M44" s="10"/>
+      <c r="M44" s="9"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="5"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S44" s="9"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -4224,7 +4321,7 @@
       <c r="G45" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="H45" s="14" t="s">
+      <c r="H45" s="13" t="s">
         <v>192</v>
       </c>
       <c r="I45" s="6" t="s">
@@ -4237,15 +4334,17 @@
       <c r="L45" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M45" s="10"/>
+      <c r="M45" s="9"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="5"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S45" s="9"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -4282,15 +4381,17 @@
       <c r="L46" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="M46" s="9"/>
+      <c r="M46" s="8"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="5"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S46" s="8"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -4312,7 +4413,7 @@
       <c r="G47" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="12" t="s">
         <v>200</v>
       </c>
       <c r="I47" s="6" t="s">
@@ -4325,15 +4426,17 @@
       <c r="L47" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M47" s="9"/>
+      <c r="M47" s="8"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S47" s="8"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>1</v>
       </c>
@@ -4355,7 +4458,7 @@
       <c r="G48" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H48" s="14" t="s">
+      <c r="H48" s="13" t="s">
         <v>204</v>
       </c>
       <c r="I48" s="6" t="s">
@@ -4370,15 +4473,17 @@
       <c r="L48" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="M48" s="10"/>
+      <c r="M48" s="9"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="5"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S48" s="9"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -4415,15 +4520,17 @@
       <c r="L49" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="M49" s="9"/>
+      <c r="M49" s="8"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S49" s="8"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -4445,7 +4552,7 @@
       <c r="G50" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H50" s="14" t="s">
+      <c r="H50" s="13" t="s">
         <v>212</v>
       </c>
       <c r="I50" s="6" t="s">
@@ -4458,15 +4565,17 @@
       <c r="L50" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M50" s="10"/>
+      <c r="M50" s="9"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
-      <c r="S50" s="5"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S50" s="9"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>1</v>
       </c>
@@ -4488,7 +4597,7 @@
       <c r="G51" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H51" s="14" t="s">
+      <c r="H51" s="13" t="s">
         <v>216</v>
       </c>
       <c r="I51" s="6" t="s">
@@ -4501,15 +4610,17 @@
       <c r="L51" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M51" s="10"/>
+      <c r="M51" s="9"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
-      <c r="S51" s="5"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S51" s="9"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -4546,17 +4657,19 @@
       <c r="L52" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="M52" s="10" t="s">
-        <v>589</v>
-      </c>
+      <c r="M52" s="9"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S52" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>1</v>
       </c>
@@ -4591,15 +4704,17 @@
       <c r="L53" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M53" s="10"/>
+      <c r="M53" s="9"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="5"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S53" s="9"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>1</v>
       </c>
@@ -4636,15 +4751,17 @@
       <c r="L54" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="M54" s="9"/>
+      <c r="M54" s="8"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="5"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S54" s="8"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -4666,7 +4783,7 @@
       <c r="G55" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="H55" s="14" t="s">
+      <c r="H55" s="13" t="s">
         <v>232</v>
       </c>
       <c r="I55" s="6" t="s">
@@ -4681,15 +4798,17 @@
       <c r="L55" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="M55" s="10"/>
+      <c r="M55" s="9"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="5"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S55" s="9"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>1</v>
       </c>
@@ -4711,7 +4830,7 @@
       <c r="G56" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="H56" s="14" t="s">
+      <c r="H56" s="13" t="s">
         <v>236</v>
       </c>
       <c r="I56" s="6" t="s">
@@ -4724,15 +4843,17 @@
       <c r="L56" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M56" s="10"/>
+      <c r="M56" s="9"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="5"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S56" s="9"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>1</v>
       </c>
@@ -4769,15 +4890,17 @@
       <c r="L57" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="M57" s="10"/>
+      <c r="M57" s="9"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S57" s="9"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>1</v>
       </c>
@@ -4799,7 +4922,7 @@
       <c r="G58" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H58" s="13" t="s">
+      <c r="H58" s="12" t="s">
         <v>244</v>
       </c>
       <c r="I58" s="6" t="s">
@@ -4812,15 +4935,17 @@
       <c r="L58" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M58" s="10"/>
+      <c r="M58" s="9"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="5"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S58" s="9"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>1</v>
       </c>
@@ -4842,7 +4967,7 @@
       <c r="G59" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H59" s="13" t="s">
+      <c r="H59" s="12" t="s">
         <v>248</v>
       </c>
       <c r="I59" s="6" t="s">
@@ -4857,15 +4982,17 @@
       <c r="L59" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="M59" s="9"/>
+      <c r="M59" s="8"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S59" s="8"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>1</v>
       </c>
@@ -4902,15 +5029,17 @@
       <c r="L60" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="M60" s="10"/>
+      <c r="M60" s="9"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S60" s="9"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>1</v>
       </c>
@@ -4945,15 +5074,17 @@
       <c r="L61" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M61" s="9"/>
+      <c r="M61" s="8"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="5"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S61" s="8"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>1</v>
       </c>
@@ -4990,15 +5121,17 @@
       <c r="L62" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="M62" s="9"/>
+      <c r="M62" s="8"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S62" s="8"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>1</v>
       </c>
@@ -5035,15 +5168,17 @@
       <c r="L63" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="M63" s="10"/>
+      <c r="M63" s="9"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="5"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S63" s="9"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>1</v>
       </c>
@@ -5065,7 +5200,7 @@
       <c r="G64" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="H64" s="14" t="s">
+      <c r="H64" s="13" t="s">
         <v>268</v>
       </c>
       <c r="I64" s="6" t="s">
@@ -5078,15 +5213,17 @@
       <c r="L64" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M64" s="10"/>
+      <c r="M64" s="9"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="5"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S64" s="9"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>1</v>
       </c>
@@ -5123,15 +5260,17 @@
       <c r="L65" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="M65" s="9"/>
+      <c r="M65" s="8"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S65" s="8"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>1</v>
       </c>
@@ -5168,15 +5307,17 @@
       <c r="L66" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="M66" s="10"/>
+      <c r="M66" s="9"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S66" s="9"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>1</v>
       </c>
@@ -5211,15 +5352,17 @@
       <c r="L67" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M67" s="10"/>
+      <c r="M67" s="9"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="5"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S67" s="9"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>1</v>
       </c>
@@ -5256,15 +5399,17 @@
       <c r="L68" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="M68" s="10"/>
+      <c r="M68" s="9"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S68" s="9"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>1</v>
       </c>
@@ -5299,15 +5444,17 @@
       <c r="L69" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M69" s="9"/>
+      <c r="M69" s="8"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="5"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S69" s="8"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>1</v>
       </c>
@@ -5329,7 +5476,7 @@
       <c r="G70" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="H70" s="14" t="s">
+      <c r="H70" s="13" t="s">
         <v>292</v>
       </c>
       <c r="I70" s="6" t="s">
@@ -5342,15 +5489,17 @@
       <c r="L70" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M70" s="10"/>
+      <c r="M70" s="9"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="5"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S70" s="9"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>1</v>
       </c>
@@ -5372,7 +5521,7 @@
       <c r="G71" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="H71" s="14" t="s">
+      <c r="H71" s="13" t="s">
         <v>296</v>
       </c>
       <c r="I71" s="6" t="s">
@@ -5385,15 +5534,17 @@
       <c r="L71" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M71" s="10"/>
+      <c r="M71" s="9"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
-      <c r="S71" s="5"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S71" s="9"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>1</v>
       </c>
@@ -5415,7 +5566,7 @@
       <c r="G72" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="H72" s="14" t="s">
+      <c r="H72" s="13" t="s">
         <v>300</v>
       </c>
       <c r="I72" s="6" t="s">
@@ -5428,15 +5579,17 @@
       <c r="L72" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M72" s="10"/>
+      <c r="M72" s="9"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
-      <c r="S72" s="5"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S72" s="9"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>1</v>
       </c>
@@ -5458,7 +5611,7 @@
       <c r="G73" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="H73" s="14" t="s">
+      <c r="H73" s="13" t="s">
         <v>304</v>
       </c>
       <c r="I73" s="6" t="s">
@@ -5471,15 +5624,17 @@
       <c r="L73" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M73" s="10"/>
+      <c r="M73" s="9"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="5"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S73" s="9"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>1</v>
       </c>
@@ -5516,15 +5671,17 @@
       <c r="L74" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="M74" s="10"/>
+      <c r="M74" s="9"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="5"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S74" s="9"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>1</v>
       </c>
@@ -5546,7 +5703,7 @@
       <c r="G75" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="H75" s="14" t="s">
+      <c r="H75" s="13" t="s">
         <v>312</v>
       </c>
       <c r="I75" s="6" t="s">
@@ -5561,15 +5718,17 @@
       <c r="L75" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="M75" s="10"/>
+      <c r="M75" s="9"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
-      <c r="S75" s="5"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S75" s="9"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>1</v>
       </c>
@@ -5591,7 +5750,7 @@
       <c r="G76" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="H76" s="14" t="s">
+      <c r="H76" s="13" t="s">
         <v>316</v>
       </c>
       <c r="I76" s="6" t="s">
@@ -5604,15 +5763,17 @@
       <c r="L76" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M76" s="10"/>
+      <c r="M76" s="9"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
-      <c r="S76" s="5"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S76" s="9"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>1</v>
       </c>
@@ -5634,7 +5795,7 @@
       <c r="G77" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="H77" s="14" t="s">
+      <c r="H77" s="13" t="s">
         <v>320</v>
       </c>
       <c r="I77" s="6" t="s">
@@ -5649,15 +5810,17 @@
       <c r="L77" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="M77" s="10"/>
+      <c r="M77" s="9"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="5"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S77" s="9"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>1</v>
       </c>
@@ -5694,17 +5857,19 @@
       <c r="L78" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="M78" s="10" t="s">
-        <v>590</v>
-      </c>
+      <c r="M78" s="9"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
-      <c r="S78" s="5"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S78" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>1</v>
       </c>
@@ -5739,15 +5904,17 @@
       <c r="L79" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M79" s="10"/>
+      <c r="M79" s="9"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="5"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S79" s="9"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>1</v>
       </c>
@@ -5784,15 +5951,17 @@
       <c r="L80" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="M80" s="10"/>
+      <c r="M80" s="9"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="5"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S80" s="9"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>1</v>
       </c>
@@ -5829,15 +5998,17 @@
       <c r="L81" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="M81" s="9"/>
+      <c r="M81" s="8"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S81" s="8"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>1</v>
       </c>
@@ -5859,7 +6030,7 @@
       <c r="G82" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="H82" s="14" t="s">
+      <c r="H82" s="13" t="s">
         <v>340</v>
       </c>
       <c r="I82" s="6" t="s">
@@ -5874,15 +6045,17 @@
       <c r="L82" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="M82" s="10"/>
+      <c r="M82" s="9"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="5"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S82" s="9"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>1</v>
       </c>
@@ -5919,15 +6092,17 @@
       <c r="L83" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="M83" s="10"/>
+      <c r="M83" s="9"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="5"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S83" s="9"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>1</v>
       </c>
@@ -5964,15 +6139,17 @@
       <c r="L84" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="M84" s="9"/>
+      <c r="M84" s="8"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="5"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S84" s="8"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>1</v>
       </c>
@@ -5994,7 +6171,7 @@
       <c r="G85" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="H85" s="14" t="s">
+      <c r="H85" s="13" t="s">
         <v>352</v>
       </c>
       <c r="I85" s="6" t="s">
@@ -6009,15 +6186,17 @@
       <c r="L85" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="M85" s="10"/>
+      <c r="M85" s="9"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="5"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S85" s="9"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>1</v>
       </c>
@@ -6039,7 +6218,7 @@
       <c r="G86" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="H86" s="14" t="s">
+      <c r="H86" s="13" t="s">
         <v>356</v>
       </c>
       <c r="I86" s="6" t="s">
@@ -6052,15 +6231,17 @@
       <c r="L86" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M86" s="10"/>
+      <c r="M86" s="9"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="5"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S86" s="9"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>1</v>
       </c>
@@ -6095,15 +6276,17 @@
       <c r="L87" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M87" s="9"/>
+      <c r="M87" s="8"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="5"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S87" s="8"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>1</v>
       </c>
@@ -6125,7 +6308,7 @@
       <c r="G88" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="H88" s="14" t="s">
+      <c r="H88" s="13" t="s">
         <v>364</v>
       </c>
       <c r="I88" s="6" t="s">
@@ -6140,15 +6323,17 @@
       <c r="L88" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="M88" s="10"/>
+      <c r="M88" s="9"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="5"/>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S88" s="9"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>1</v>
       </c>
@@ -6185,17 +6370,19 @@
       <c r="L89" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="M89" s="10" t="s">
-        <v>591</v>
-      </c>
+      <c r="M89" s="9"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="5"/>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S89" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>1</v>
       </c>
@@ -6217,7 +6404,7 @@
       <c r="G90" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="H90" s="14" t="s">
+      <c r="H90" s="13" t="s">
         <v>372</v>
       </c>
       <c r="I90" s="6" t="s">
@@ -6232,15 +6419,17 @@
       <c r="L90" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="M90" s="10"/>
+      <c r="M90" s="9"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="5"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S90" s="9"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>1</v>
       </c>
@@ -6277,15 +6466,17 @@
       <c r="L91" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="M91" s="9"/>
+      <c r="M91" s="8"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="5"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S91" s="8"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>1</v>
       </c>
@@ -6307,7 +6498,7 @@
       <c r="G92" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="H92" s="14" t="s">
+      <c r="H92" s="13" t="s">
         <v>380</v>
       </c>
       <c r="I92" s="6" t="s">
@@ -6320,15 +6511,17 @@
       <c r="L92" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M92" s="10"/>
+      <c r="M92" s="9"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="5"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S92" s="9"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>1</v>
       </c>
@@ -6363,15 +6556,17 @@
       <c r="L93" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M93" s="10"/>
+      <c r="M93" s="9"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S93" s="9"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>1</v>
       </c>
@@ -6393,7 +6588,7 @@
       <c r="G94" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="H94" s="14" t="s">
+      <c r="H94" s="13" t="s">
         <v>388</v>
       </c>
       <c r="I94" s="6" t="s">
@@ -6406,15 +6601,17 @@
       <c r="L94" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M94" s="10"/>
+      <c r="M94" s="9"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="5"/>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S94" s="9"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>1</v>
       </c>
@@ -6451,15 +6648,17 @@
       <c r="L95" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="M95" s="10"/>
+      <c r="M95" s="9"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="5"/>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S95" s="9"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>1</v>
       </c>
@@ -6481,7 +6680,7 @@
       <c r="G96" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="H96" s="14" t="s">
+      <c r="H96" s="13" t="s">
         <v>396</v>
       </c>
       <c r="I96" s="6" t="s">
@@ -6496,15 +6695,17 @@
       <c r="L96" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="M96" s="10"/>
+      <c r="M96" s="9"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="5"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S96" s="9"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>1</v>
       </c>
@@ -6539,15 +6740,17 @@
       <c r="L97" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M97" s="9"/>
+      <c r="M97" s="8"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="5"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S97" s="8"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>1</v>
       </c>
@@ -6584,15 +6787,17 @@
       <c r="L98" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="M98" s="9"/>
+      <c r="M98" s="8"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S98" s="8"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>1</v>
       </c>
@@ -6614,7 +6819,7 @@
       <c r="G99" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="H99" s="14" t="s">
+      <c r="H99" s="13" t="s">
         <v>408</v>
       </c>
       <c r="I99" s="6" t="s">
@@ -6629,15 +6834,17 @@
       <c r="L99" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="M99" s="10"/>
+      <c r="M99" s="9"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S99" s="9"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>1</v>
       </c>
@@ -6659,7 +6866,7 @@
       <c r="G100" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="H100" s="14" t="s">
+      <c r="H100" s="13" t="s">
         <v>412</v>
       </c>
       <c r="I100" s="6" t="s">
@@ -6674,15 +6881,17 @@
       <c r="L100" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="M100" s="10"/>
+      <c r="M100" s="9"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S100" s="9"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>1</v>
       </c>
@@ -6717,15 +6926,17 @@
       <c r="L101" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M101" s="10"/>
+      <c r="M101" s="9"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S101" s="9"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>1</v>
       </c>
@@ -6747,7 +6958,7 @@
       <c r="G102" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="H102" s="14" t="s">
+      <c r="H102" s="13" t="s">
         <v>420</v>
       </c>
       <c r="I102" s="6" t="s">
@@ -6762,15 +6973,17 @@
       <c r="L102" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="M102" s="10"/>
+      <c r="M102" s="9"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="5"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S102" s="9"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>1</v>
       </c>
@@ -6792,7 +7005,7 @@
       <c r="G103" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="H103" s="14" t="s">
+      <c r="H103" s="13" t="s">
         <v>424</v>
       </c>
       <c r="I103" s="6" t="s">
@@ -6805,15 +7018,17 @@
       <c r="L103" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M103" s="10"/>
+      <c r="M103" s="9"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="5"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S103" s="9"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>1</v>
       </c>
@@ -6835,7 +7050,7 @@
       <c r="G104" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="H104" s="14" t="s">
+      <c r="H104" s="13" t="s">
         <v>427</v>
       </c>
       <c r="I104" s="6" t="s">
@@ -6848,15 +7063,17 @@
       <c r="L104" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M104" s="10"/>
+      <c r="M104" s="9"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="5"/>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S104" s="9"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>1</v>
       </c>
@@ -6878,7 +7095,7 @@
       <c r="G105" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="H105" s="14" t="s">
+      <c r="H105" s="13" t="s">
         <v>431</v>
       </c>
       <c r="I105" s="6" t="s">
@@ -6893,15 +7110,17 @@
       <c r="L105" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="M105" s="10"/>
+      <c r="M105" s="9"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="5"/>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S105" s="9"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>1</v>
       </c>
@@ -6923,7 +7142,7 @@
       <c r="G106" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H106" s="14" t="s">
+      <c r="H106" s="13" t="s">
         <v>435</v>
       </c>
       <c r="I106" s="6" t="s">
@@ -6936,15 +7155,17 @@
       <c r="L106" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M106" s="10"/>
+      <c r="M106" s="9"/>
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
-      <c r="S106" s="5"/>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S106" s="9"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5"/>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>1</v>
       </c>
@@ -6966,7 +7187,7 @@
       <c r="G107" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="H107" s="14" t="s">
+      <c r="H107" s="13" t="s">
         <v>438</v>
       </c>
       <c r="I107" s="6" t="s">
@@ -6979,15 +7200,17 @@
       <c r="L107" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M107" s="10"/>
+      <c r="M107" s="9"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
-      <c r="S107" s="5"/>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S107" s="9"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="5"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>1</v>
       </c>
@@ -7009,7 +7232,7 @@
       <c r="G108" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="H108" s="14" t="s">
+      <c r="H108" s="13" t="s">
         <v>442</v>
       </c>
       <c r="I108" s="6" t="s">
@@ -7022,15 +7245,17 @@
       <c r="L108" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M108" s="10"/>
+      <c r="M108" s="9"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="5"/>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S108" s="9"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>1</v>
       </c>
@@ -7052,7 +7277,7 @@
       <c r="G109" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="H109" s="14" t="s">
+      <c r="H109" s="13" t="s">
         <v>446</v>
       </c>
       <c r="I109" s="6" t="s">
@@ -7065,15 +7290,17 @@
       <c r="L109" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M109" s="10"/>
+      <c r="M109" s="9"/>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
-      <c r="S109" s="5"/>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S109" s="9"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>1</v>
       </c>
@@ -7110,15 +7337,17 @@
       <c r="L110" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="M110" s="9"/>
+      <c r="M110" s="8"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S110" s="8"/>
+      <c r="T110" s="5"/>
+      <c r="U110" s="5"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>1</v>
       </c>
@@ -7140,7 +7369,7 @@
       <c r="G111" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="H111" s="13" t="s">
+      <c r="H111" s="12" t="s">
         <v>454</v>
       </c>
       <c r="I111" s="6" t="s">
@@ -7153,15 +7382,17 @@
       <c r="L111" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M111" s="9"/>
+      <c r="M111" s="8"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S111" s="8"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="5"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>1</v>
       </c>
@@ -7183,7 +7414,7 @@
       <c r="G112" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="H112" s="13" t="s">
+      <c r="H112" s="12" t="s">
         <v>458</v>
       </c>
       <c r="I112" s="6" t="s">
@@ -7198,15 +7429,17 @@
       <c r="L112" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="M112" s="9"/>
+      <c r="M112" s="8"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S112" s="8"/>
+      <c r="T112" s="5"/>
+      <c r="U112" s="5"/>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>1</v>
       </c>
@@ -7243,17 +7476,19 @@
       <c r="L113" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="M113" s="9" t="s">
-        <v>584</v>
-      </c>
+      <c r="M113" s="8"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S113" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="T113" s="5"/>
+      <c r="U113" s="5"/>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>1</v>
       </c>
@@ -7275,7 +7510,7 @@
       <c r="G114" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="H114" s="13" t="s">
+      <c r="H114" s="12" t="s">
         <v>466</v>
       </c>
       <c r="I114" s="6" t="s">
@@ -7290,15 +7525,17 @@
       <c r="L114" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="M114" s="9"/>
+      <c r="M114" s="8"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S114" s="8"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5"/>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>1</v>
       </c>
@@ -7320,7 +7557,7 @@
       <c r="G115" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="H115" s="13" t="s">
+      <c r="H115" s="12" t="s">
         <v>470</v>
       </c>
       <c r="I115" s="6" t="s">
@@ -7335,15 +7572,17 @@
       <c r="L115" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="M115" s="9"/>
+      <c r="M115" s="8"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S115" s="8"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="5"/>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>1</v>
       </c>
@@ -7365,7 +7604,7 @@
       <c r="G116" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="H116" s="13" t="s">
+      <c r="H116" s="12" t="s">
         <v>474</v>
       </c>
       <c r="I116" s="6" t="s">
@@ -7378,15 +7617,17 @@
       <c r="L116" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M116" s="9"/>
+      <c r="M116" s="8"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S116" s="8"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="5"/>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>1</v>
       </c>
@@ -7423,15 +7664,17 @@
       <c r="L117" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="M117" s="9"/>
+      <c r="M117" s="8"/>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S117" s="8"/>
+      <c r="T117" s="5"/>
+      <c r="U117" s="5"/>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>1</v>
       </c>
@@ -7453,7 +7696,7 @@
       <c r="G118" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="H118" s="13" t="s">
+      <c r="H118" s="12" t="s">
         <v>482</v>
       </c>
       <c r="I118" s="6" t="s">
@@ -7468,15 +7711,17 @@
       <c r="L118" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="M118" s="9"/>
+      <c r="M118" s="8"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S118" s="8"/>
+      <c r="T118" s="5"/>
+      <c r="U118" s="5"/>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>1</v>
       </c>
@@ -7498,7 +7743,7 @@
       <c r="G119" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="H119" s="13" t="s">
+      <c r="H119" s="12" t="s">
         <v>486</v>
       </c>
       <c r="I119" s="6" t="s">
@@ -7513,15 +7758,17 @@
       <c r="L119" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="M119" s="9"/>
+      <c r="M119" s="8"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S119" s="8"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="5"/>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>1</v>
       </c>
@@ -7543,7 +7790,7 @@
       <c r="G120" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="H120" s="13" t="s">
+      <c r="H120" s="12" t="s">
         <v>489</v>
       </c>
       <c r="I120" s="6" t="s">
@@ -7556,15 +7803,17 @@
       <c r="L120" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M120" s="9"/>
+      <c r="M120" s="8"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S120" s="8"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="5"/>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>1</v>
       </c>
@@ -7586,7 +7835,7 @@
       <c r="G121" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="H121" s="13" t="s">
+      <c r="H121" s="12" t="s">
         <v>493</v>
       </c>
       <c r="I121" s="6" t="s">
@@ -7601,15 +7850,17 @@
       <c r="L121" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="M121" s="9"/>
+      <c r="M121" s="8"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="5"/>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S121" s="8"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5"/>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>1</v>
       </c>
@@ -7631,7 +7882,7 @@
       <c r="G122" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="H122" s="13" t="s">
+      <c r="H122" s="12" t="s">
         <v>497</v>
       </c>
       <c r="I122" s="6" t="s">
@@ -7644,15 +7895,17 @@
       <c r="L122" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M122" s="9"/>
+      <c r="M122" s="8"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="5"/>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S122" s="8"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5"/>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>1</v>
       </c>
@@ -7689,15 +7942,17 @@
       <c r="L123" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="M123" s="9"/>
+      <c r="M123" s="8"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S123" s="8"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5"/>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>1</v>
       </c>
@@ -7719,7 +7974,7 @@
       <c r="G124" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="H124" s="13" t="s">
+      <c r="H124" s="12" t="s">
         <v>505</v>
       </c>
       <c r="I124" s="6" t="s">
@@ -7734,15 +7989,17 @@
       <c r="L124" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="M124" s="9"/>
+      <c r="M124" s="8"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="5"/>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S124" s="8"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="5"/>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>1</v>
       </c>
@@ -7777,15 +8034,17 @@
       <c r="L125" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M125" s="9"/>
+      <c r="M125" s="8"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S125" s="8"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="5"/>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>1</v>
       </c>
@@ -7807,7 +8066,7 @@
       <c r="G126" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="H126" s="13" t="s">
+      <c r="H126" s="12" t="s">
         <v>513</v>
       </c>
       <c r="I126" s="6" t="s">
@@ -7822,15 +8081,17 @@
       <c r="L126" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="M126" s="9"/>
+      <c r="M126" s="8"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S126" s="8"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="5"/>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>1</v>
       </c>
@@ -7852,7 +8113,7 @@
       <c r="G127" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="H127" s="13" t="s">
+      <c r="H127" s="12" t="s">
         <v>517</v>
       </c>
       <c r="I127" s="6" t="s">
@@ -7865,15 +8126,17 @@
       <c r="L127" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="M127" s="9"/>
+      <c r="M127" s="8"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="5"/>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S127" s="8"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="5"/>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>1</v>
       </c>
@@ -7910,15 +8173,17 @@
       <c r="L128" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="M128" s="9"/>
+      <c r="M128" s="8"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S128" s="8"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="5"/>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>1</v>
       </c>
@@ -7940,7 +8205,7 @@
       <c r="G129" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="H129" s="13" t="s">
+      <c r="H129" s="12" t="s">
         <v>525</v>
       </c>
       <c r="I129" s="6" t="s">
@@ -7955,15 +8220,17 @@
       <c r="L129" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="M129" s="9"/>
+      <c r="M129" s="8"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="5"/>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S129" s="8"/>
+      <c r="T129" s="5"/>
+      <c r="U129" s="5"/>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>1</v>
       </c>
@@ -8000,15 +8267,17 @@
       <c r="L130" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="M130" s="9"/>
+      <c r="M130" s="8"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S130" s="8"/>
+      <c r="T130" s="5"/>
+      <c r="U130" s="5"/>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>1</v>
       </c>
@@ -8030,7 +8299,7 @@
       <c r="G131" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="H131" s="13" t="s">
+      <c r="H131" s="12" t="s">
         <v>533</v>
       </c>
       <c r="I131" s="6" t="s">
@@ -8045,16 +8314,18 @@
       <c r="L131" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="M131" s="9"/>
+      <c r="M131" s="8"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="5"/>
+      <c r="S131" s="8"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S131"/>
+  <autoFilter ref="A1:U131"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/sources/Russian_data.xlsx
+++ b/sources/Russian_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="595">
   <si>
     <t>language_no</t>
   </si>
@@ -1710,72 +1710,6 @@
     <t>izzaGEN</t>
   </si>
   <si>
-    <t>uGENNOM</t>
-  </si>
-  <si>
-    <t>NOMINS</t>
-  </si>
-  <si>
-    <t>NOMGEN</t>
-  </si>
-  <si>
-    <t>DATGEN</t>
-  </si>
-  <si>
-    <t>NOMnaACC</t>
-  </si>
-  <si>
-    <t>NOMDAT</t>
-  </si>
-  <si>
-    <t>NOMsINS</t>
-  </si>
-  <si>
-    <t>NOMvACC</t>
-  </si>
-  <si>
-    <t>NOMuGEN</t>
-  </si>
-  <si>
-    <t>NOMizGEN</t>
-  </si>
-  <si>
-    <t>NOMdoGEN</t>
-  </si>
-  <si>
-    <t>NOMoLOC</t>
-  </si>
-  <si>
-    <t>NOMotGEN</t>
-  </si>
-  <si>
-    <t>NOMnaINS</t>
-  </si>
-  <si>
-    <t>NOMnadINS</t>
-  </si>
-  <si>
-    <t>DATNOM</t>
-  </si>
-  <si>
-    <t>NOMvLOC</t>
-  </si>
-  <si>
-    <t>NOMkDAT</t>
-  </si>
-  <si>
-    <t>NOMpoDAT</t>
-  </si>
-  <si>
-    <t>NOMzaINS</t>
-  </si>
-  <si>
-    <t>NOMsGEN</t>
-  </si>
-  <si>
-    <t>NOMizzaGEN</t>
-  </si>
-  <si>
     <t>NV</t>
   </si>
   <si>
@@ -1804,6 +1738,75 @@
   </si>
   <si>
     <t>sentence_original_orthography</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>DAT_GEN</t>
+  </si>
+  <si>
+    <t>DAT_NOM</t>
+  </si>
+  <si>
+    <t>uGEN_NOM</t>
+  </si>
+  <si>
+    <t>NOM_INS</t>
+  </si>
+  <si>
+    <t>NOM_GEN</t>
+  </si>
+  <si>
+    <t>NOM_naACC</t>
+  </si>
+  <si>
+    <t>NOM_DAT</t>
+  </si>
+  <si>
+    <t>NOM_sINS</t>
+  </si>
+  <si>
+    <t>NOM_vACC</t>
+  </si>
+  <si>
+    <t>NOM_uGEN</t>
+  </si>
+  <si>
+    <t>NOM_izGEN</t>
+  </si>
+  <si>
+    <t>NOM_doGEN</t>
+  </si>
+  <si>
+    <t>NOM_oLOC</t>
+  </si>
+  <si>
+    <t>NOM_otGEN</t>
+  </si>
+  <si>
+    <t>NOM_naINS</t>
+  </si>
+  <si>
+    <t>NOM_nadINS</t>
+  </si>
+  <si>
+    <t>NOM_vLOC</t>
+  </si>
+  <si>
+    <t>NOM_kDAT</t>
+  </si>
+  <si>
+    <t>NOM_poDAT</t>
+  </si>
+  <si>
+    <t>NOM_zaINS</t>
+  </si>
+  <si>
+    <t>NOM_sGEN</t>
+  </si>
+  <si>
+    <t>NOM_izzaGEN</t>
   </si>
 </sst>
 </file>
@@ -2211,9 +2214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2298,10 +2299,10 @@
         <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -2339,7 +2340,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="5"/>
@@ -2386,7 +2387,7 @@
         <v>9</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="5"/>
@@ -2433,7 +2434,7 @@
         <v>9</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="5"/>
@@ -2471,9 +2472,11 @@
         <v>33</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J5" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K5" s="6" t="s">
         <v>541</v>
       </c>
@@ -2525,7 +2528,7 @@
         <v>544</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="5"/>
@@ -2572,7 +2575,7 @@
         <v>9</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="5"/>
@@ -2581,7 +2584,7 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="9" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -2621,7 +2624,7 @@
         <v>9</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="5"/>
@@ -2659,9 +2662,11 @@
         <v>49</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J9" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K9" s="6" t="s">
         <v>541</v>
       </c>
@@ -2704,9 +2709,11 @@
         <v>53</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J10" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K10" s="6" t="s">
         <v>541</v>
       </c>
@@ -2758,7 +2765,7 @@
         <v>9</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="5"/>
@@ -2805,7 +2812,7 @@
         <v>9</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="5"/>
@@ -2852,7 +2859,7 @@
         <v>9</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="5"/>
@@ -2899,7 +2906,7 @@
         <v>9</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="5"/>
@@ -2946,7 +2953,7 @@
         <v>9</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="5"/>
@@ -2984,9 +2991,11 @@
         <v>77</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J16" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K16" s="6" t="s">
         <v>541</v>
       </c>
@@ -3029,9 +3038,11 @@
         <v>81</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J17" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K17" s="6" t="s">
         <v>541</v>
       </c>
@@ -3083,7 +3094,7 @@
         <v>9</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="5"/>
@@ -3121,9 +3132,11 @@
         <v>89</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J19" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K19" s="6" t="s">
         <v>541</v>
       </c>
@@ -3166,9 +3179,11 @@
         <v>93</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J20" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K20" s="6" t="s">
         <v>541</v>
       </c>
@@ -3211,9 +3226,11 @@
         <v>97</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J21" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K21" s="6" t="s">
         <v>541</v>
       </c>
@@ -3265,7 +3282,7 @@
         <v>9</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="5"/>
@@ -3312,7 +3329,7 @@
         <v>9</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="5"/>
@@ -3359,7 +3376,7 @@
         <v>9</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="5"/>
@@ -3406,7 +3423,7 @@
         <v>9</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="5"/>
@@ -3453,7 +3470,7 @@
         <v>9</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="M26" s="8"/>
       <c r="N26" s="5"/>
@@ -3491,9 +3508,11 @@
         <v>121</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J27" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K27" s="6" t="s">
         <v>541</v>
       </c>
@@ -3536,9 +3555,11 @@
         <v>125</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J28" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K28" s="6" t="s">
         <v>541</v>
       </c>
@@ -3581,9 +3602,11 @@
         <v>129</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J29" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K29" s="6" t="s">
         <v>541</v>
       </c>
@@ -3597,7 +3620,7 @@
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="9" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -3637,7 +3660,7 @@
         <v>9</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="5"/>
@@ -3684,7 +3707,7 @@
         <v>9</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="M31" s="8"/>
       <c r="N31" s="5"/>
@@ -3722,9 +3745,11 @@
         <v>141</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J32" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K32" s="6" t="s">
         <v>541</v>
       </c>
@@ -3776,7 +3801,7 @@
         <v>9</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="M33" s="8"/>
       <c r="N33" s="5"/>
@@ -3814,9 +3839,11 @@
         <v>149</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J34" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K34" s="6" t="s">
         <v>541</v>
       </c>
@@ -3868,7 +3895,7 @@
         <v>9</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="M35" s="8"/>
       <c r="N35" s="5"/>
@@ -3915,7 +3942,7 @@
         <v>9</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="5"/>
@@ -3924,7 +3951,7 @@
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="9" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
@@ -3955,9 +3982,11 @@
         <v>553</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J37" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K37" s="6" t="s">
         <v>541</v>
       </c>
@@ -4009,7 +4038,7 @@
         <v>9</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="5"/>
@@ -4056,7 +4085,7 @@
         <v>8</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="5"/>
@@ -4065,7 +4094,7 @@
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="9" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -4096,9 +4125,11 @@
         <v>172</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J40" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K40" s="6" t="s">
         <v>541</v>
       </c>
@@ -4112,7 +4143,7 @@
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="9" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -4143,9 +4174,11 @@
         <v>176</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J41" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K41" s="6" t="s">
         <v>541</v>
       </c>
@@ -4188,9 +4221,11 @@
         <v>180</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J42" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K42" s="6" t="s">
         <v>541</v>
       </c>
@@ -4242,7 +4277,7 @@
         <v>9</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="5"/>
@@ -4280,9 +4315,11 @@
         <v>188</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J44" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K44" s="6" t="s">
         <v>541</v>
       </c>
@@ -4325,9 +4362,11 @@
         <v>192</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J45" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K45" s="6" t="s">
         <v>541</v>
       </c>
@@ -4379,7 +4418,7 @@
         <v>9</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="M46" s="8"/>
       <c r="N46" s="5"/>
@@ -4417,9 +4456,11 @@
         <v>200</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J47" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K47" s="6" t="s">
         <v>541</v>
       </c>
@@ -4471,7 +4512,7 @@
         <v>9</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="5"/>
@@ -4518,7 +4559,7 @@
         <v>9</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="M49" s="8"/>
       <c r="N49" s="5"/>
@@ -4556,9 +4597,11 @@
         <v>212</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J50" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K50" s="6" t="s">
         <v>541</v>
       </c>
@@ -4601,9 +4644,11 @@
         <v>216</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J51" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K51" s="6" t="s">
         <v>541</v>
       </c>
@@ -4655,7 +4700,7 @@
         <v>9</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="5"/>
@@ -4664,7 +4709,7 @@
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="9" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
@@ -4695,9 +4740,11 @@
         <v>224</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J53" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K53" s="6" t="s">
         <v>541</v>
       </c>
@@ -4749,7 +4796,7 @@
         <v>9</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="M54" s="8"/>
       <c r="N54" s="5"/>
@@ -4796,7 +4843,7 @@
         <v>9</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="5"/>
@@ -4834,9 +4881,11 @@
         <v>236</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J56" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K56" s="6" t="s">
         <v>541</v>
       </c>
@@ -4888,7 +4937,7 @@
         <v>544</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="5"/>
@@ -4926,9 +4975,11 @@
         <v>244</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J58" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K58" s="6" t="s">
         <v>541</v>
       </c>
@@ -4980,7 +5031,7 @@
         <v>8</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M59" s="8"/>
       <c r="N59" s="5"/>
@@ -5027,7 +5078,7 @@
         <v>9</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="5"/>
@@ -5065,9 +5116,11 @@
         <v>256</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J61" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K61" s="6" t="s">
         <v>541</v>
       </c>
@@ -5119,7 +5172,7 @@
         <v>8</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="M62" s="8"/>
       <c r="N62" s="5"/>
@@ -5166,7 +5219,7 @@
         <v>9</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="5"/>
@@ -5204,9 +5257,11 @@
         <v>268</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J64" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K64" s="6" t="s">
         <v>541</v>
       </c>
@@ -5258,7 +5313,7 @@
         <v>9</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="M65" s="8"/>
       <c r="N65" s="5"/>
@@ -5305,7 +5360,7 @@
         <v>9</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="5"/>
@@ -5343,9 +5398,11 @@
         <v>280</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J67" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K67" s="6" t="s">
         <v>541</v>
       </c>
@@ -5397,7 +5454,7 @@
         <v>9</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="5"/>
@@ -5435,9 +5492,11 @@
         <v>288</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J69" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K69" s="6" t="s">
         <v>541</v>
       </c>
@@ -5480,9 +5539,11 @@
         <v>292</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J70" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K70" s="6" t="s">
         <v>541</v>
       </c>
@@ -5525,9 +5586,11 @@
         <v>296</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J71" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K71" s="6" t="s">
         <v>541</v>
       </c>
@@ -5570,9 +5633,11 @@
         <v>300</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J72" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K72" s="6" t="s">
         <v>541</v>
       </c>
@@ -5615,9 +5680,11 @@
         <v>304</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J73" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K73" s="6" t="s">
         <v>541</v>
       </c>
@@ -5669,7 +5736,7 @@
         <v>9</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="5"/>
@@ -5716,7 +5783,7 @@
         <v>9</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="5"/>
@@ -5754,9 +5821,11 @@
         <v>316</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J76" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K76" s="6" t="s">
         <v>541</v>
       </c>
@@ -5808,7 +5877,7 @@
         <v>9</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="5"/>
@@ -5855,7 +5924,7 @@
         <v>9</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="5"/>
@@ -5864,7 +5933,7 @@
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="9" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
@@ -5895,9 +5964,11 @@
         <v>328</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J79" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K79" s="6" t="s">
         <v>541</v>
       </c>
@@ -5949,7 +6020,7 @@
         <v>9</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="5"/>
@@ -5996,7 +6067,7 @@
         <v>9</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="M81" s="8"/>
       <c r="N81" s="5"/>
@@ -6043,7 +6114,7 @@
         <v>9</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="5"/>
@@ -6090,7 +6161,7 @@
         <v>9</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="5"/>
@@ -6137,7 +6208,7 @@
         <v>9</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="M84" s="8"/>
       <c r="N84" s="5"/>
@@ -6184,7 +6255,7 @@
         <v>9</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="5"/>
@@ -6222,9 +6293,11 @@
         <v>356</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J86" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K86" s="6" t="s">
         <v>541</v>
       </c>
@@ -6267,9 +6340,11 @@
         <v>360</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J87" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K87" s="6" t="s">
         <v>541</v>
       </c>
@@ -6321,7 +6396,7 @@
         <v>9</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="5"/>
@@ -6368,7 +6443,7 @@
         <v>9</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="5"/>
@@ -6377,7 +6452,7 @@
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
       <c r="S89" s="9" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="T89" s="5"/>
       <c r="U89" s="5"/>
@@ -6417,7 +6492,7 @@
         <v>9</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="5"/>
@@ -6464,7 +6539,7 @@
         <v>9</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="M91" s="8"/>
       <c r="N91" s="5"/>
@@ -6502,9 +6577,11 @@
         <v>380</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J92" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K92" s="6" t="s">
         <v>541</v>
       </c>
@@ -6547,9 +6624,11 @@
         <v>384</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J93" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K93" s="6" t="s">
         <v>541</v>
       </c>
@@ -6592,9 +6671,11 @@
         <v>388</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J94" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K94" s="6" t="s">
         <v>541</v>
       </c>
@@ -6646,7 +6727,7 @@
         <v>9</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="5"/>
@@ -6693,7 +6774,7 @@
         <v>9</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="5"/>
@@ -6731,9 +6812,11 @@
         <v>400</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J97" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K97" s="6" t="s">
         <v>541</v>
       </c>
@@ -6785,7 +6868,7 @@
         <v>8</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M98" s="8"/>
       <c r="N98" s="5"/>
@@ -6832,7 +6915,7 @@
         <v>9</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="5"/>
@@ -6879,7 +6962,7 @@
         <v>9</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="5"/>
@@ -6917,9 +7000,11 @@
         <v>416</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J101" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K101" s="6" t="s">
         <v>541</v>
       </c>
@@ -6971,7 +7056,7 @@
         <v>9</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="5"/>
@@ -7009,9 +7094,11 @@
         <v>424</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J103" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K103" s="6" t="s">
         <v>541</v>
       </c>
@@ -7054,9 +7141,11 @@
         <v>427</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J104" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K104" s="6" t="s">
         <v>541</v>
       </c>
@@ -7108,7 +7197,7 @@
         <v>9</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="5"/>
@@ -7146,9 +7235,11 @@
         <v>435</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J106" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K106" s="6" t="s">
         <v>541</v>
       </c>
@@ -7191,9 +7282,11 @@
         <v>438</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J107" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K107" s="6" t="s">
         <v>541</v>
       </c>
@@ -7236,9 +7329,11 @@
         <v>442</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J108" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K108" s="6" t="s">
         <v>541</v>
       </c>
@@ -7281,9 +7376,11 @@
         <v>446</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J109" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K109" s="6" t="s">
         <v>541</v>
       </c>
@@ -7335,7 +7432,7 @@
         <v>9</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="M110" s="8"/>
       <c r="N110" s="5"/>
@@ -7373,9 +7470,11 @@
         <v>454</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J111" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K111" s="6" t="s">
         <v>541</v>
       </c>
@@ -7427,7 +7526,7 @@
         <v>9</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="M112" s="8"/>
       <c r="N112" s="5"/>
@@ -7474,7 +7573,7 @@
         <v>9</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="M113" s="8"/>
       <c r="N113" s="5"/>
@@ -7483,7 +7582,7 @@
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
       <c r="S113" s="8" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="T113" s="5"/>
       <c r="U113" s="5"/>
@@ -7523,7 +7622,7 @@
         <v>9</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="M114" s="8"/>
       <c r="N114" s="5"/>
@@ -7570,7 +7669,7 @@
         <v>9</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="M115" s="8"/>
       <c r="N115" s="5"/>
@@ -7608,9 +7707,11 @@
         <v>474</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J116" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K116" s="6" t="s">
         <v>541</v>
       </c>
@@ -7662,7 +7763,7 @@
         <v>9</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="M117" s="8"/>
       <c r="N117" s="5"/>
@@ -7709,7 +7810,7 @@
         <v>9</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="M118" s="8"/>
       <c r="N118" s="5"/>
@@ -7756,7 +7857,7 @@
         <v>9</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="M119" s="8"/>
       <c r="N119" s="5"/>
@@ -7794,9 +7895,11 @@
         <v>489</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J120" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K120" s="6" t="s">
         <v>541</v>
       </c>
@@ -7848,7 +7951,7 @@
         <v>9</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="M121" s="8"/>
       <c r="N121" s="5"/>
@@ -7886,9 +7989,11 @@
         <v>497</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J122" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K122" s="6" t="s">
         <v>541</v>
       </c>
@@ -7940,7 +8045,7 @@
         <v>9</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="M123" s="8"/>
       <c r="N123" s="5"/>
@@ -7987,7 +8092,7 @@
         <v>9</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="M124" s="8"/>
       <c r="N124" s="5"/>
@@ -8025,9 +8130,11 @@
         <v>509</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J125" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K125" s="6" t="s">
         <v>541</v>
       </c>
@@ -8079,7 +8186,7 @@
         <v>9</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="M126" s="8"/>
       <c r="N126" s="5"/>
@@ -8117,9 +8224,11 @@
         <v>517</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J127" s="6"/>
+        <v>538</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="K127" s="6" t="s">
         <v>541</v>
       </c>
@@ -8171,7 +8280,7 @@
         <v>9</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="M128" s="8"/>
       <c r="N128" s="5"/>
@@ -8218,7 +8327,7 @@
         <v>9</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="M129" s="8"/>
       <c r="N129" s="5"/>
@@ -8265,7 +8374,7 @@
         <v>9</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="M130" s="8"/>
       <c r="N130" s="5"/>
@@ -8312,7 +8421,7 @@
         <v>9</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="M131" s="8"/>
       <c r="N131" s="5"/>
